--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P34_trail5 Features.xlsx
@@ -3427,7 +3427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3438,29 +3438,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3481,115 +3479,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3606,72 +3594,66 @@
         <v>1.826494209326593e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.892365215714394</v>
+        <v>1.142070704869123e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.014988139062231</v>
+        <v>3.904363013214903e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.142070704869123e-06</v>
+        <v>0.09684827894224074</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.904363013214903e-06</v>
+        <v>0.2520307572607936</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.09684827894224074</v>
+        <v>0.07273576464239841</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2520307572607936</v>
+        <v>1.928502518243103</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07273576464239841</v>
+        <v>2.116406322214946</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.944277014259785</v>
+        <v>4.325348659863073</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.116406322214946</v>
+        <v>4.783742704155215e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.325348659863073</v>
+        <v>505601325.8714621</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.783742704155215e-16</v>
+        <v>2.38701490308689e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>505601325.8714621</v>
+        <v>122.2881067027051</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.38701490308689e-07</v>
+        <v>0.0001985364344504581</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>122.2881067027051</v>
+        <v>11.8047719499247</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001985364344504581</v>
+        <v>1.088849666553073</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>11.8047719499247</v>
+        <v>0.02766657643364825</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.088849666553073</v>
+        <v>2.576869001369024</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02766657643364825</v>
+        <v>0.9594751916638542</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.576869001369024</v>
+        <v>1.233879510314123</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9594751916638542</v>
+        <v>49</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.233879510314123</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.5844434603583458</v>
       </c>
     </row>
@@ -3686,72 +3668,66 @@
         <v>1.453011722129457e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.652669880561148</v>
+        <v>8.911724695077395e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>7.66397655986075</v>
+        <v>3.919995332543915e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.911724695077395e-07</v>
+        <v>0.09521610470417965</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.919995332543915e-06</v>
+        <v>0.2370815112745707</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09521610470417965</v>
+        <v>0.06513404467271282</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2370815112745707</v>
+        <v>1.904508755715411</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06513404467271282</v>
+        <v>2.013157916628437</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.90587108540063</v>
+        <v>4.246062351784137</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.013157916628437</v>
+        <v>4.964063408270161e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.246062351784137</v>
+        <v>479890398.5939057</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.964063408270161e-16</v>
+        <v>2.498936662146927e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>479890398.5939057</v>
+        <v>114.3197963299791</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.498936662146927e-07</v>
+        <v>0.000208015549998125</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>114.3197963299791</v>
+        <v>11.1201050885189</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000208015549998125</v>
+        <v>1.184739999195651</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.1201050885189</v>
+        <v>0.02572252419540973</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.184739999195651</v>
+        <v>2.585700267990435</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02572252419540973</v>
+        <v>0.9579879056081901</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.585700267990435</v>
+        <v>1.344199655244923</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9579879056081901</v>
+        <v>20</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.344199655244923</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.5355329499594783</v>
       </c>
     </row>
@@ -3766,72 +3742,66 @@
         <v>1.183196572083236e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.3920620385696</v>
+        <v>7.086639126682019e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6.332803215209037</v>
+        <v>3.932375996956383e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.086639126682019e-07</v>
+        <v>0.09377219768358365</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.932375996956383e-06</v>
+        <v>0.2235213869098443</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.09377219768358365</v>
+        <v>0.05864345798079075</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2235213869098443</v>
+        <v>1.891047186280495</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05864345798079075</v>
+        <v>1.968177883451769</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.879840925787194</v>
+        <v>5.374177158540521</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.968177883451769</v>
+        <v>7.675322352833694e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.374177158540521</v>
+        <v>297906770.6854628</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.675322352833694e-16</v>
+        <v>4.002087449173e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>297906770.6854628</v>
+        <v>68.11729161677651</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.002087449173e-07</v>
+        <v>0.0001771099772069</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>68.11729161677651</v>
+        <v>9.578441823452819</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001771099772069</v>
+        <v>1.314557271740859</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.578441823452819</v>
+        <v>0.01624922898351876</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.314557271740859</v>
+        <v>2.890964564614686</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01624922898351876</v>
+        <v>0.9572535423788591</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.890964564614686</v>
+        <v>1.514956166116198</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9572535423788591</v>
+        <v>20</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.514956166116198</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.5610638589843475</v>
       </c>
     </row>
@@ -3846,72 +3816,66 @@
         <v>9.875189609754322e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-2.117588486850211</v>
+        <v>5.754900813510492e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>5.108886330408954</v>
+        <v>3.942399641006011e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.754900813510492e-07</v>
+        <v>0.09176741148578225</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.942399641006011e-06</v>
+        <v>0.2133628844349139</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.09176741148578225</v>
+        <v>0.05385987252623829</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2133628844349139</v>
+        <v>1.885570365483304</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.05385987252623829</v>
+        <v>1.974275871899125</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.87713081751837</v>
+        <v>4.393769367541482</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.974275871899125</v>
+        <v>1.25940834420302e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.393769367541482</v>
+        <v>179826329.5676153</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.25940834420302e-15</v>
+        <v>6.622313143240243e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>179826329.5676153</v>
+        <v>40.72612842071352</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.622313143240243e-07</v>
+        <v>0.0001639240556189309</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>40.72612842071352</v>
+        <v>7.873567933815851</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001639240556189309</v>
+        <v>1.703310777381421</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.873567933815851</v>
+        <v>0.01016215578389551</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.703310777381421</v>
+        <v>3.041486035421709</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01016215578389551</v>
+        <v>0.958318148172429</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.041486035421709</v>
+        <v>1.521185634347709</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.958318148172429</v>
+        <v>20</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.521185634347709</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3647007451245445</v>
       </c>
     </row>
@@ -3926,72 +3890,66 @@
         <v>8.440217984296211e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-1.837356313814006</v>
+        <v>4.778384982594568e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.055728802259452</v>
+        <v>3.950643770140248e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.778384982594568e-07</v>
+        <v>0.08891174997927093</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.950643770140248e-06</v>
+        <v>0.2084494587911389</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.08891174997927093</v>
+        <v>0.05129415315058006</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2084494587911389</v>
+        <v>1.89241693815882</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05129415315058006</v>
+        <v>2.049013942997165</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.878365271488944</v>
+        <v>3.946723052117132</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.049013942997165</v>
+        <v>1.560873743716538e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.946723052117132</v>
+        <v>154996456.219902</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.560873743716538e-15</v>
+        <v>7.720905240984713e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>154996456.219902</v>
+        <v>37.49827698046626</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.720905240984713e-07</v>
+        <v>0.0001578230095638505</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>37.49827698046626</v>
+        <v>8.801026993371421</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001578230095638505</v>
+        <v>1.322213522440178</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.801026993371421</v>
+        <v>0.0122246666911333</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.322213522440178</v>
+        <v>2.881557959165613</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0122246666911333</v>
+        <v>0.9592266241134281</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.881557959165613</v>
+        <v>1.502069967326685</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9592266241134281</v>
+        <v>20</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.502069967326685</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2592624093365774</v>
       </c>
     </row>
@@ -4006,72 +3964,66 @@
         <v>7.364705760649984e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1.555985208075305</v>
+        <v>4.060487915734858e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.174422780201077</v>
+        <v>3.957520486738861e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.060487915734858e-07</v>
+        <v>0.08571146777714489</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.957520486738861e-06</v>
+        <v>0.2100257501096682</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.08571146777714489</v>
+        <v>0.0514128437045925</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2100257501096682</v>
+        <v>1.87810101480725</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0514128437045925</v>
+        <v>1.928123775271863</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.855774785870922</v>
+        <v>3.884654008021883</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.928123775271863</v>
+        <v>1.611151545230296e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.884654008021883</v>
+        <v>148922590.5358893</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.611151545230296e-15</v>
+        <v>8.020100811226133e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>148922590.5358893</v>
+        <v>35.73201903348081</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>8.020100811226133e-07</v>
+        <v>0.0001627464799866448</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>35.73201903348081</v>
+        <v>10.0618698296087</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001627464799866448</v>
+        <v>1.150498472016775</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.0618698296087</v>
+        <v>0.01647665291170312</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.150498472016775</v>
+        <v>2.63140810808294</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01647665291170312</v>
+        <v>0.9603386048875898</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.63140810808294</v>
+        <v>1.535487060396666</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9603386048875898</v>
+        <v>4</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.535487060396666</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2330176558602859</v>
       </c>
     </row>
@@ -4448,7 +4400,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.23703350237616</v>
+        <v>1.233948494789845</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.051832983835155</v>
@@ -4537,7 +4489,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.244167633560147</v>
+        <v>1.239400193782532</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.120274198019734</v>
@@ -4626,7 +4578,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.270898750303814</v>
+        <v>1.264834762410259</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.033639495434968</v>
@@ -4715,7 +4667,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.273853039973702</v>
+        <v>1.266274108706682</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.929472228124763</v>
@@ -4804,7 +4756,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.298389673840145</v>
+        <v>1.29341227645883</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.950043694661577</v>
@@ -4893,7 +4845,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.337892507328148</v>
+        <v>1.331644197912472</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.880477318518905</v>
@@ -4982,7 +4934,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39717003606474</v>
+        <v>1.383868579553721</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.934504771543744</v>
@@ -5071,7 +5023,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.357065501968095</v>
+        <v>1.352763558300913</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.042983533122752</v>
@@ -5160,7 +5112,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.356453447373054</v>
+        <v>1.352763571575097</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.048825700184747</v>
@@ -5249,7 +5201,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.354528492694379</v>
+        <v>1.349191505613465</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.0203973774724</v>
@@ -5338,7 +5290,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.35459482113808</v>
+        <v>1.345589428457383</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.056089486484007</v>
@@ -5427,7 +5379,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.39274478467215</v>
+        <v>1.385838409945051</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.011982772044533</v>
@@ -5516,7 +5468,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.360798777423464</v>
+        <v>1.353260955902878</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.01597657940378</v>
@@ -5605,7 +5557,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.397420872928577</v>
+        <v>1.388054207895483</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.865828929248319</v>
@@ -5694,7 +5646,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.400018084741349</v>
+        <v>1.387750123669463</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.02146504927432</v>
@@ -5783,7 +5735,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.398748670296149</v>
+        <v>1.384547078553601</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.009915176397694</v>
@@ -5872,7 +5824,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.396373330718044</v>
+        <v>1.386014297714312</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.98841110663283</v>
@@ -5961,7 +5913,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.35168870575751</v>
+        <v>1.347696076881895</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.089765114103236</v>
@@ -6050,7 +6002,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.39500812018242</v>
+        <v>1.387549939763382</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.989837705925607</v>
@@ -6139,7 +6091,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.391579843284927</v>
+        <v>1.384486926170227</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.988166568265218</v>
@@ -6228,7 +6180,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.386411837459055</v>
+        <v>1.378865375121058</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.966874162081171</v>
@@ -6317,7 +6269,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.401812952082386</v>
+        <v>1.392209559542934</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.871862186669124</v>
@@ -6406,7 +6358,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.451910748351148</v>
+        <v>1.436239164614191</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.938967796865427</v>
@@ -6495,7 +6447,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.411173026092021</v>
+        <v>1.403801971772779</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.980422498906745</v>
@@ -6584,7 +6536,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.412784222973105</v>
+        <v>1.407042546160831</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.969772653410023</v>
@@ -6673,7 +6625,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.41472161265694</v>
+        <v>1.410060523963488</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.009620266948859</v>
@@ -6762,7 +6714,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.367527518502142</v>
+        <v>1.363519356541262</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.982660253827669</v>
@@ -6851,7 +6803,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.40952056536872</v>
+        <v>1.401111267816399</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.088066867075826</v>
@@ -6940,7 +6892,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.410496597434979</v>
+        <v>1.403015797637432</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.029602117571006</v>
@@ -7029,7 +6981,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.416830153348972</v>
+        <v>1.410830095243221</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.987567068870201</v>
@@ -7118,7 +7070,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.415639128166508</v>
+        <v>1.409451670593215</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.035820002740556</v>
@@ -7207,7 +7159,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.39038659594896</v>
+        <v>1.383057137786231</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.972667119032555</v>
@@ -7296,7 +7248,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.432987942001208</v>
+        <v>1.426600101145214</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.02607297927601</v>
@@ -7385,7 +7337,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.438701368695448</v>
+        <v>1.431453261262328</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.027685907649037</v>
@@ -7474,7 +7426,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.436093181784418</v>
+        <v>1.430053205275293</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.055446897730743</v>
@@ -7563,7 +7515,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.435647068180772</v>
+        <v>1.432198129711425</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.047004990052884</v>
@@ -7652,7 +7604,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.433029676862885</v>
+        <v>1.429550786399527</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.043881127082481</v>
@@ -7741,7 +7693,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.426757356066067</v>
+        <v>1.429019618495977</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.013299387370187</v>
@@ -7830,7 +7782,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.417683733290296</v>
+        <v>1.423200538165714</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.019148176444052</v>
@@ -7919,7 +7871,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.418860674389945</v>
+        <v>1.425057426717446</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.021322514922776</v>
@@ -8008,7 +7960,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.421466201715698</v>
+        <v>1.4233503112407</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.078623522211358</v>
@@ -8097,7 +8049,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.480991193898315</v>
+        <v>1.479941052967784</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.047334927803161</v>
@@ -8186,7 +8138,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.418448456293569</v>
+        <v>1.428147705902699</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.041461256090519</v>
@@ -8275,7 +8227,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.41906884085931</v>
+        <v>1.428071418499106</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.055864075842417</v>
@@ -8364,7 +8316,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.415771137103298</v>
+        <v>1.426560548873846</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.011331665582059</v>
@@ -8453,7 +8405,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.410869134538342</v>
+        <v>1.421791121308142</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.101147266901201</v>
@@ -8542,7 +8494,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.446668517507874</v>
+        <v>1.457811457593779</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.023485718698857</v>
@@ -8631,7 +8583,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.406677980869779</v>
+        <v>1.412271241411831</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.943748474708107</v>
@@ -8720,7 +8672,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.393559584663984</v>
+        <v>1.401659823215486</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.980878561978124</v>
@@ -8809,7 +8761,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.39513541948603</v>
+        <v>1.401402776610222</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.961091883016492</v>
@@ -8898,7 +8850,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.396460284847197</v>
+        <v>1.390604972787605</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.969639550614679</v>
@@ -9184,7 +9136,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.591494161842215</v>
+        <v>1.537308203735945</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.057222107219508</v>
@@ -9273,7 +9225,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.598844262502131</v>
+        <v>1.538343125529115</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.09214477348785</v>
@@ -9362,7 +9314,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.608184468393135</v>
+        <v>1.545047851297339</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.138119606378507</v>
@@ -9451,7 +9403,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.621140266046904</v>
+        <v>1.559193519314398</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.100385336593964</v>
@@ -9540,7 +9492,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.614635906001797</v>
+        <v>1.558272283202778</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.467915227514849</v>
@@ -9629,7 +9581,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.619076639494504</v>
+        <v>1.564679444326549</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.320597289014092</v>
@@ -9718,7 +9670,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.612067122270237</v>
+        <v>1.56207468755153</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.436867075042926</v>
@@ -9807,7 +9759,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.603098783421873</v>
+        <v>1.557432997614029</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.167866368651594</v>
@@ -9896,7 +9848,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.586308122814584</v>
+        <v>1.543644913975814</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.131056673366036</v>
@@ -9985,7 +9937,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.593450151447378</v>
+        <v>1.549453102280837</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.167861730165936</v>
@@ -10074,7 +10026,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.580384483160992</v>
+        <v>1.536795593879163</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.960839883652381</v>
@@ -10163,7 +10115,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.580204135379776</v>
+        <v>1.537534992276592</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.140056218099249</v>
@@ -10252,7 +10204,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.57161130876188</v>
+        <v>1.528765537766097</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.043155277777231</v>
@@ -10341,7 +10293,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.566022068363076</v>
+        <v>1.531426081351942</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.75452914761362</v>
@@ -10430,7 +10382,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.559977467293888</v>
+        <v>1.524711444101676</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.161618772998984</v>
@@ -10519,7 +10471,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.561715677490257</v>
+        <v>1.526426051784374</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.083208279693254</v>
@@ -10608,7 +10560,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.549614966224931</v>
+        <v>1.520742310573709</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.178375674928574</v>
@@ -10697,7 +10649,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.54722748034734</v>
+        <v>1.519170298107937</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.928613828889638</v>
@@ -10786,7 +10738,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.55080713212599</v>
+        <v>1.521263965252172</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.253203127652437</v>
@@ -10875,7 +10827,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.553239466589282</v>
+        <v>1.522392461620233</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.963540849222813</v>
@@ -10964,7 +10916,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.560211694632414</v>
+        <v>1.526238702537432</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.06587384899278</v>
@@ -11053,7 +11005,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.564560355476415</v>
+        <v>1.526764225319732</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.901397153815151</v>
@@ -11142,7 +11094,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.574182582933612</v>
+        <v>1.536710566177384</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.608147136071378</v>
@@ -11231,7 +11183,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.592022363677398</v>
+        <v>1.553409949054823</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.06876033791774</v>
@@ -11320,7 +11272,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.587209370849181</v>
+        <v>1.554433834305616</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.126773692537756</v>
@@ -11409,7 +11361,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.596061158578602</v>
+        <v>1.563543893702539</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.22760245828023</v>
@@ -11498,7 +11450,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589434825920166</v>
+        <v>1.563693306647505</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.251410151856514</v>
@@ -11587,7 +11539,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.605255838373389</v>
+        <v>1.576303672866496</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.093390780029542</v>
@@ -11676,7 +11628,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.604720848351842</v>
+        <v>1.571474621921635</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.364034489803767</v>
@@ -11765,7 +11717,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.60254725022439</v>
+        <v>1.570546394350559</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.878806503845067</v>
@@ -11854,7 +11806,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.594952191469307</v>
+        <v>1.567119921817892</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.055381024418263</v>
@@ -11943,7 +11895,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.596138276011686</v>
+        <v>1.567565649754194</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.843715047186806</v>
@@ -12032,7 +11984,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.595427425304076</v>
+        <v>1.572124058010483</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.960299128123603</v>
@@ -12121,7 +12073,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.590761201434439</v>
+        <v>1.563954116406586</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.942005560759482</v>
@@ -12210,7 +12162,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.59820727580923</v>
+        <v>1.57197844752212</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.774203661702821</v>
@@ -12299,7 +12251,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59138078135585</v>
+        <v>1.566217644149681</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.92324416114474</v>
@@ -12388,7 +12340,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.589145029747657</v>
+        <v>1.564351269053418</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.795297600012393</v>
@@ -12477,7 +12429,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.588534220785295</v>
+        <v>1.571454910832491</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.824083483296771</v>
@@ -12566,7 +12518,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.587280447980021</v>
+        <v>1.56806597891792</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.914125108009014</v>
@@ -12655,7 +12607,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.581599711875939</v>
+        <v>1.562771580651325</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.887915462618534</v>
@@ -12744,7 +12696,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.573198351696276</v>
+        <v>1.554131702417278</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.925751801477035</v>
@@ -12833,7 +12785,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.56412733081734</v>
+        <v>1.546923639253295</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.916516828454398</v>
@@ -12922,7 +12874,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.569395311482916</v>
+        <v>1.554387543014752</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.887106796360904</v>
@@ -13011,7 +12963,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.574200866801572</v>
+        <v>1.561393523856241</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.748634039597931</v>
@@ -13100,7 +13052,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.596170513809761</v>
+        <v>1.578809533638362</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.698815496170347</v>
@@ -13189,7 +13141,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.592638607172574</v>
+        <v>1.57189764061609</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.900726028566116</v>
@@ -13278,7 +13230,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.59918015492955</v>
+        <v>1.580393693640882</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.938153626535757</v>
@@ -13367,7 +13319,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.583514978240388</v>
+        <v>1.559043117228167</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.647378033675956</v>
@@ -13456,7 +13408,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585417000284974</v>
+        <v>1.564397609767977</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.83810581180887</v>
@@ -13545,7 +13497,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.584099773626904</v>
+        <v>1.556893115950108</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.876828116329557</v>
@@ -13634,7 +13586,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.592379149212267</v>
+        <v>1.563344089218048</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.738006169338118</v>
@@ -13920,7 +13872,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.505021333794275</v>
+        <v>1.466086967886843</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.886321342746494</v>
@@ -14009,7 +13961,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.50491051147464</v>
+        <v>1.464357633862543</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.990750435609722</v>
@@ -14098,7 +14050,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.507517562347764</v>
+        <v>1.457845629267236</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.817397647752772</v>
@@ -14187,7 +14139,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.515880447700363</v>
+        <v>1.463370989411122</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.639081647838655</v>
@@ -14276,7 +14228,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.531125578216334</v>
+        <v>1.474121028130868</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.959509352187641</v>
@@ -14365,7 +14317,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.547844248745642</v>
+        <v>1.485057727449693</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.604238862880616</v>
@@ -14454,7 +14406,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.57003542744125</v>
+        <v>1.503092239832786</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.040412195546335</v>
@@ -14543,7 +14495,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.559725292049864</v>
+        <v>1.499013185204797</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.052169147249604</v>
@@ -14632,7 +14584,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.551610034670089</v>
+        <v>1.487123694476835</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.978537161577745</v>
@@ -14721,7 +14673,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539834471832554</v>
+        <v>1.473727872737075</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.920995863125541</v>
@@ -14810,7 +14762,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.53237379592349</v>
+        <v>1.470840511903971</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.109663871666279</v>
@@ -14899,7 +14851,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.543245825482594</v>
+        <v>1.48028402627709</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.837823706502721</v>
@@ -14988,7 +14940,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.544606444359158</v>
+        <v>1.478713657168724</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.872856906617832</v>
@@ -15077,7 +15029,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.557889080012366</v>
+        <v>1.496618862249842</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.436140334938949</v>
@@ -15166,7 +15118,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.55535550742959</v>
+        <v>1.496368585332254</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.888044242250794</v>
@@ -15255,7 +15207,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.548650890875727</v>
+        <v>1.492633820198458</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.1288518391598</v>
@@ -15344,7 +15296,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.548175180688913</v>
+        <v>1.494858127050274</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.002719918821193</v>
@@ -15433,7 +15385,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.544946899203228</v>
+        <v>1.49459472709707</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.217731890581248</v>
@@ -15522,7 +15474,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.552809833729646</v>
+        <v>1.501739152082505</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.963553727850121</v>
@@ -15611,7 +15563,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.552926558016724</v>
+        <v>1.505086861840662</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.123700615720175</v>
@@ -15700,7 +15652,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.548702994465799</v>
+        <v>1.501891394302248</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.717644539431466</v>
@@ -15789,7 +15741,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.556291572215995</v>
+        <v>1.504714598234419</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.668963246718486</v>
@@ -15878,7 +15830,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.574364307375607</v>
+        <v>1.515676357760815</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.801639702295979</v>
@@ -15967,7 +15919,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.5789941753365</v>
+        <v>1.528804857893241</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.847051654512185</v>
@@ -16056,7 +16008,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.591055459355661</v>
+        <v>1.541331615160771</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.065694022201851</v>
@@ -16145,7 +16097,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.59664594741435</v>
+        <v>1.544466964684529</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.100061849913662</v>
@@ -16234,7 +16186,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.580139283979711</v>
+        <v>1.536085623059508</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.854905283426715</v>
@@ -16323,7 +16275,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.588470820335841</v>
+        <v>1.540859477034606</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.231515682685978</v>
@@ -16412,7 +16364,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.588864381118747</v>
+        <v>1.538577759005464</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.332978382288938</v>
@@ -16501,7 +16453,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.593263191443243</v>
+        <v>1.542834990493423</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.024369814861307</v>
@@ -16590,7 +16542,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.585060552590822</v>
+        <v>1.534956906371413</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.471809363520781</v>
@@ -16679,7 +16631,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577561172720117</v>
+        <v>1.526212906737658</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.476628201287549</v>
@@ -16768,7 +16720,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.579914654524026</v>
+        <v>1.532934553315416</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.639679694248524</v>
@@ -16857,7 +16809,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.584302009204534</v>
+        <v>1.530123965386513</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.113705771385243</v>
@@ -16946,7 +16898,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.588184157116128</v>
+        <v>1.535186367555696</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.406376431678251</v>
@@ -17035,7 +16987,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.59000269526753</v>
+        <v>1.533923461630028</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.609232628229172</v>
@@ -17124,7 +17076,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.586864559772668</v>
+        <v>1.5336290002587</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.434755726851753</v>
@@ -17213,7 +17165,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.580026295252798</v>
+        <v>1.53637247281983</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.49805835521703</v>
@@ -17302,7 +17254,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.578371057780962</v>
+        <v>1.534878768585563</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.315266977713802</v>
@@ -17391,7 +17343,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.574385148045345</v>
+        <v>1.530667197492594</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.222057645418025</v>
@@ -17480,7 +17432,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.579196877427159</v>
+        <v>1.533095248994568</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.291212438231975</v>
@@ -17569,7 +17521,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.587344787866929</v>
+        <v>1.536104440508999</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.537157895435632</v>
@@ -17658,7 +17610,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.584721517653548</v>
+        <v>1.538674717239559</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.172755368448766</v>
@@ -17747,7 +17699,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.588477892628043</v>
+        <v>1.538615162347167</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.192679526902161</v>
@@ -17836,7 +17788,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.5932172017155</v>
+        <v>1.544580039802486</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.434246987001665</v>
@@ -17925,7 +17877,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.599748979564076</v>
+        <v>1.548388903433066</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.07182088348127</v>
@@ -18014,7 +17966,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.594722481968128</v>
+        <v>1.547793367855358</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.529824709096456</v>
@@ -18103,7 +18055,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.579894891477161</v>
+        <v>1.531197312785476</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.815509085618463</v>
@@ -18192,7 +18144,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.580782712500629</v>
+        <v>1.535584567616363</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.852683011868855</v>
@@ -18281,7 +18233,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.577082497059874</v>
+        <v>1.53304571458071</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.071737964958207</v>
@@ -18370,7 +18322,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.583345624645319</v>
+        <v>1.538872943629543</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.895965765827993</v>
@@ -18656,7 +18608,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.60627170006737</v>
+        <v>1.560078310778882</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.560440719588194</v>
@@ -18745,7 +18697,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.607808242642131</v>
+        <v>1.556854382839805</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.289355790610609</v>
@@ -18834,7 +18786,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.605462403884634</v>
+        <v>1.549322741212935</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.457148731248083</v>
@@ -18923,7 +18875,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.612782087166747</v>
+        <v>1.550396404130742</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.189016987143804</v>
@@ -19012,7 +18964,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.621781252957943</v>
+        <v>1.560573318779252</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.157130329072303</v>
@@ -19101,7 +19053,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.630895083947363</v>
+        <v>1.563634594698482</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.22047339260574</v>
@@ -19190,7 +19142,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.645148416595686</v>
+        <v>1.576308914236316</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.123202494103051</v>
@@ -19279,7 +19231,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.644677844318044</v>
+        <v>1.58000552678964</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.178292969337924</v>
@@ -19368,7 +19320,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.63994220526179</v>
+        <v>1.573896032036738</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.206569568268772</v>
@@ -19457,7 +19409,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.639384101997975</v>
+        <v>1.574570224455701</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.327308511326722</v>
@@ -19546,7 +19498,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.62914760899774</v>
+        <v>1.567261483713083</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.431650483370337</v>
@@ -19635,7 +19587,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.624805248751907</v>
+        <v>1.557330491480773</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.148575298797982</v>
@@ -19724,7 +19676,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.636843276968935</v>
+        <v>1.560739544220327</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.102992895900845</v>
@@ -19813,7 +19765,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.631109247746729</v>
+        <v>1.55972867179642</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.692213581271485</v>
@@ -19902,7 +19854,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.626919084844932</v>
+        <v>1.555609680663986</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.38214920307239</v>
@@ -19991,7 +19943,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.610457941674346</v>
+        <v>1.542809011371498</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.401100626274764</v>
@@ -20080,7 +20032,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.612183754584167</v>
+        <v>1.54651851639576</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.216803202972705</v>
@@ -20169,7 +20121,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.607988793903586</v>
+        <v>1.546930019704927</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.377750495578993</v>
@@ -20258,7 +20210,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.604884211131842</v>
+        <v>1.543794554064618</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.272142988367663</v>
@@ -20347,7 +20299,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.597876005066665</v>
+        <v>1.539535010870891</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.925868831594818</v>
@@ -20436,7 +20388,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.59036380414469</v>
+        <v>1.537227718940846</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.457990090273107</v>
@@ -20525,7 +20477,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.585823557377652</v>
+        <v>1.532286914705553</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.354918811615351</v>
@@ -20614,7 +20566,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.597768447007584</v>
+        <v>1.543366547207013</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.855460266285534</v>
@@ -20703,7 +20655,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.601482177363824</v>
+        <v>1.55234240071209</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.415298563033145</v>
@@ -20792,7 +20744,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.604874105757972</v>
+        <v>1.54973682233514</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.488348802525487</v>
@@ -20881,7 +20833,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.609465508018863</v>
+        <v>1.558301526584864</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.233904687182987</v>
@@ -20970,7 +20922,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.609280600880288</v>
+        <v>1.555100497864711</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.39882173987042</v>
@@ -21059,7 +21011,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.609301383991981</v>
+        <v>1.553150656781037</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.067749271446439</v>
@@ -21148,7 +21100,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.611527029775403</v>
+        <v>1.552585605639724</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.611606834564117</v>
@@ -21237,7 +21189,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.621902814553669</v>
+        <v>1.561675007162124</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.08207141600605</v>
@@ -21326,7 +21278,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.626343444574114</v>
+        <v>1.566081235618737</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.649876729233794</v>
@@ -21415,7 +21367,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625217331520166</v>
+        <v>1.559151507733178</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.670115414664131</v>
@@ -21504,7 +21456,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.63092213455597</v>
+        <v>1.566031585669541</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.23152115784277</v>
@@ -21593,7 +21545,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.6400438344999</v>
+        <v>1.571702391698891</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.046956358172314</v>
@@ -21682,7 +21634,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.637656682597423</v>
+        <v>1.572914757488123</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.126032763157487</v>
@@ -21771,7 +21723,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.642611508464435</v>
+        <v>1.574541253014985</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.236618762448453</v>
@@ -21860,7 +21812,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.644745560969137</v>
+        <v>1.576632452724473</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.477383501334808</v>
@@ -21949,7 +21901,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.639207148935471</v>
+        <v>1.569611961147778</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.365696270627184</v>
@@ -22038,7 +21990,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.629059256981805</v>
+        <v>1.5625137113042</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.353803950337768</v>
@@ -22127,7 +22079,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.621388895313489</v>
+        <v>1.553009570710097</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.921406922583233</v>
@@ -22216,7 +22168,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.627008114203114</v>
+        <v>1.558135570032213</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.190082586202931</v>
@@ -22305,7 +22257,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.627651157071977</v>
+        <v>1.563687262858629</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.408578956507102</v>
@@ -22394,7 +22346,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.635583184479535</v>
+        <v>1.574759591341419</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.580678419038615</v>
@@ -22483,7 +22435,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.636442318014732</v>
+        <v>1.579451210161055</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.281549701824236</v>
@@ -22572,7 +22524,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.629285034582311</v>
+        <v>1.576540325287534</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.206162920520597</v>
@@ -22661,7 +22613,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.626146456312669</v>
+        <v>1.575217770389468</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.186284966476692</v>
@@ -22750,7 +22702,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.614971033532899</v>
+        <v>1.57354750367944</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.319429703766072</v>
@@ -22839,7 +22791,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.613317553467515</v>
+        <v>1.567130273303393</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.382477002361282</v>
@@ -22928,7 +22880,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.609629123638859</v>
+        <v>1.564286273363205</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.724922539669955</v>
@@ -23017,7 +22969,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.607750072136489</v>
+        <v>1.561901758363672</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.553989714427761</v>
@@ -23106,7 +23058,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.611636742489432</v>
+        <v>1.564630096242542</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.689578755261943</v>
@@ -23392,7 +23344,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.603091906493418</v>
+        <v>1.550375116897712</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.110431991694671</v>
@@ -23481,7 +23433,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.624151655258026</v>
+        <v>1.566484608962297</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.959141273993909</v>
@@ -23570,7 +23522,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.63775156371988</v>
+        <v>1.582968785438466</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.423899226791462</v>
@@ -23659,7 +23611,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.644455858291493</v>
+        <v>1.586063703804065</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.294877553859149</v>
@@ -23748,7 +23700,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.644159337857533</v>
+        <v>1.592110070355473</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.575668053422057</v>
@@ -23837,7 +23789,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.643388401078305</v>
+        <v>1.588976748138902</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.141893223406954</v>
@@ -23926,7 +23878,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.640298955005502</v>
+        <v>1.585063150569417</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.069651122786907</v>
@@ -24015,7 +23967,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.633080096728013</v>
+        <v>1.581486150757665</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.526150986309294</v>
@@ -24104,7 +24056,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.616086485887256</v>
+        <v>1.56937011374707</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.020668109594525</v>
@@ -24193,7 +24145,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.606652316838878</v>
+        <v>1.554401760635781</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.169063105082379</v>
@@ -24282,7 +24234,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.584991011226302</v>
+        <v>1.533084594829372</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.191601012907979</v>
@@ -24371,7 +24323,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.561589568248777</v>
+        <v>1.508110737187425</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.13636006386703</v>
@@ -24460,7 +24412,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.563476500938966</v>
+        <v>1.508500804414291</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.967337160449644</v>
@@ -24549,7 +24501,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.55409963510748</v>
+        <v>1.50323816134302</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.81566199690583</v>
@@ -24638,7 +24590,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.545218360538056</v>
+        <v>1.49358348796541</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.0701823946059</v>
@@ -24727,7 +24679,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.534918073904737</v>
+        <v>1.490463439206926</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.97695081649246</v>
@@ -24816,7 +24768,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.525562536220063</v>
+        <v>1.484052680941519</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.139199995924195</v>
@@ -24905,7 +24857,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.52074743177989</v>
+        <v>1.481580054423991</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.10010145315242</v>
@@ -24994,7 +24946,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.518069267721288</v>
+        <v>1.477797062504157</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.15652270363377</v>
@@ -25083,7 +25035,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.513569796940241</v>
+        <v>1.476616362819385</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.961784597797862</v>
@@ -25172,7 +25124,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.519335870282797</v>
+        <v>1.485212381255081</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.006917009076426</v>
@@ -25261,7 +25213,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.517653675852217</v>
+        <v>1.474936582450156</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.924987552293252</v>
@@ -25350,7 +25302,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.520346678061128</v>
+        <v>1.474713896438097</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.723396311102161</v>
@@ -25439,7 +25391,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.533312790196882</v>
+        <v>1.482549868221803</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.939944291118515</v>
@@ -25528,7 +25480,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.539986016692856</v>
+        <v>1.492999901323053</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.877717547601194</v>
@@ -25617,7 +25569,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.545905209440823</v>
+        <v>1.497561143164986</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.875026953463833</v>
@@ -25706,7 +25658,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.558947370452496</v>
+        <v>1.509744934266179</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.045670242337224</v>
@@ -25795,7 +25747,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.576568992708529</v>
+        <v>1.523554435754683</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.822860687107826</v>
@@ -25884,7 +25836,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.575278070125637</v>
+        <v>1.518978803146066</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.096195264464503</v>
@@ -25973,7 +25925,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.573685916121983</v>
+        <v>1.519216338703184</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.845904949640282</v>
@@ -26062,7 +26014,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.575707485821757</v>
+        <v>1.519515188772153</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.306125544586856</v>
@@ -26151,7 +26103,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.570694189958371</v>
+        <v>1.513385128844374</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.01335203514727</v>
@@ -26240,7 +26192,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.575067565256774</v>
+        <v>1.519951042624751</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.96726322079535</v>
@@ -26329,7 +26281,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.572170782156333</v>
+        <v>1.518520524021872</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.812628035547563</v>
@@ -26418,7 +26370,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.559180880624796</v>
+        <v>1.510600021983014</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.002438814097619</v>
@@ -26507,7 +26459,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.563192808559515</v>
+        <v>1.510315244506069</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.020419935027249</v>
@@ -26596,7 +26548,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.562803339570681</v>
+        <v>1.516423086788174</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.077570020975815</v>
@@ -26685,7 +26637,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.563233251092226</v>
+        <v>1.520799999179331</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.931491974406391</v>
@@ -26774,7 +26726,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.563071486763942</v>
+        <v>1.526315528919473</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.067021786186254</v>
@@ -26863,7 +26815,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.560543548404801</v>
+        <v>1.519182524706875</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.884961755995198</v>
@@ -26952,7 +26904,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.566008862360261</v>
+        <v>1.519744332901705</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.129761044978604</v>
@@ -27041,7 +26993,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.555055892458509</v>
+        <v>1.51724404392238</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.886845336115139</v>
@@ -27130,7 +27082,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.552429625626313</v>
+        <v>1.520689096220592</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.170911193299788</v>
@@ -27219,7 +27171,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.562886199419102</v>
+        <v>1.524586673149729</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.733048220722529</v>
@@ -27308,7 +27260,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.569287984730707</v>
+        <v>1.538978827395366</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.334986593818563</v>
@@ -27397,7 +27349,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.568752363643381</v>
+        <v>1.535697831771723</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.204766480086538</v>
@@ -27486,7 +27438,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.57089902816526</v>
+        <v>1.533568634012991</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.439319971470216</v>
@@ -27575,7 +27527,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.555544165997012</v>
+        <v>1.516716712966909</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.702436342088646</v>
@@ -27664,7 +27616,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.570861456076195</v>
+        <v>1.528216686632841</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.847015697570536</v>
@@ -27753,7 +27705,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.576941910152479</v>
+        <v>1.531767589402239</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.743919704953856</v>
@@ -27842,7 +27794,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.577756179365984</v>
+        <v>1.535286465850864</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.753939996451347</v>
@@ -28128,7 +28080,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.252756305094676</v>
+        <v>1.251048772243382</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.086909147353396</v>
@@ -28217,7 +28169,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.25974979755351</v>
+        <v>1.254039183068707</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.111058042824312</v>
@@ -28306,7 +28258,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.27616881379219</v>
+        <v>1.272683387117953</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.0776733482248</v>
@@ -28395,7 +28347,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.273432530361923</v>
+        <v>1.269711119502985</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.934414553206523</v>
@@ -28484,7 +28436,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.293218542604548</v>
+        <v>1.289746067387962</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.980480065686531</v>
@@ -28573,7 +28525,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.321061646623765</v>
+        <v>1.315811804074374</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.88692017115702</v>
@@ -28662,7 +28614,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.374757955725058</v>
+        <v>1.36736798089207</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.968009399196329</v>
@@ -28751,7 +28703,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.340216451588625</v>
+        <v>1.334754579953055</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.03614271821982</v>
@@ -28840,7 +28792,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.341459192207319</v>
+        <v>1.334164564178125</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.085328298818891</v>
@@ -28929,7 +28881,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.340585919348471</v>
+        <v>1.329440989912426</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.072039887266558</v>
@@ -29018,7 +28970,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.343384050729238</v>
+        <v>1.327677169032311</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.104420297504846</v>
@@ -29107,7 +29059,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.369500351701206</v>
+        <v>1.351020367553657</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.095342261348228</v>
@@ -29196,7 +29148,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.341580848078875</v>
+        <v>1.324076877111529</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.993483850504248</v>
@@ -29285,7 +29237,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.372753305172518</v>
+        <v>1.354786492650892</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.864235170044108</v>
@@ -29374,7 +29326,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.380923143561615</v>
+        <v>1.361832009310499</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.025780520945462</v>
@@ -29463,7 +29415,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.383536306620573</v>
+        <v>1.364362726775623</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.043914257521906</v>
@@ -29552,7 +29504,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.382810626334828</v>
+        <v>1.369192340711252</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.060960956081349</v>
@@ -29641,7 +29593,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.34543984890467</v>
+        <v>1.337123482086186</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.12747564549418</v>
@@ -29730,7 +29682,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.378692071381404</v>
+        <v>1.368151826273216</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.087609165259927</v>
@@ -29819,7 +29771,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.377557892102119</v>
+        <v>1.36738719414623</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.086420033854255</v>
@@ -29908,7 +29860,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.375543485222368</v>
+        <v>1.36421829778923</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.008169562742629</v>
@@ -29997,7 +29949,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.388045291395138</v>
+        <v>1.373966068197612</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.955822149425804</v>
@@ -30086,7 +30038,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.426137775363557</v>
+        <v>1.4127083529887</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.940999429409596</v>
@@ -30175,7 +30127,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.388327777093973</v>
+        <v>1.382605511852404</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.05269966760672</v>
@@ -30264,7 +30216,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.39430506180739</v>
+        <v>1.387461259370038</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.111900199715795</v>
@@ -30353,7 +30305,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.38767273903916</v>
+        <v>1.38796859879618</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.055821664358412</v>
@@ -30442,7 +30394,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.354763532780719</v>
+        <v>1.358619126832345</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.000882968268746</v>
@@ -30531,7 +30483,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.392817589359789</v>
+        <v>1.389554522185103</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.102446472470631</v>
@@ -30620,7 +30572,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.399296660929245</v>
+        <v>1.395956259367121</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.025132006825853</v>
@@ -30709,7 +30661,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.400251347489033</v>
+        <v>1.395054212942127</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.006017056759435</v>
@@ -30798,7 +30750,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.399549874221262</v>
+        <v>1.393628133672313</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.054803750417994</v>
@@ -30887,7 +30839,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.360436096386242</v>
+        <v>1.351978367949755</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.951447415492517</v>
@@ -30976,7 +30928,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.390633548331671</v>
+        <v>1.383662248565846</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.982474796332753</v>
@@ -31065,7 +31017,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.399465924660898</v>
+        <v>1.38820295486686</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.982850761847815</v>
@@ -31154,7 +31106,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.40106834597574</v>
+        <v>1.392566938886699</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.025321699201172</v>
@@ -31243,7 +31195,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.400972771912818</v>
+        <v>1.395125207924844</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.043313079546725</v>
@@ -31332,7 +31284,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.404389822476281</v>
+        <v>1.400081038905129</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.99685114695695</v>
@@ -31421,7 +31373,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.40180809431198</v>
+        <v>1.395702901117194</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.017074658806947</v>
@@ -31510,7 +31462,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.391986127452133</v>
+        <v>1.388678216961493</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.991507558431913</v>
@@ -31599,7 +31551,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.393782710650344</v>
+        <v>1.392085645748902</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.000507046664413</v>
@@ -31688,7 +31640,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.401749679001639</v>
+        <v>1.395136074158759</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.090267057507701</v>
@@ -31777,7 +31729,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.445300774073449</v>
+        <v>1.431164160423586</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.988454882902534</v>
@@ -31866,7 +31818,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.396414598501192</v>
+        <v>1.395126122239762</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.031219707447702</v>
@@ -31955,7 +31907,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.39944600068914</v>
+        <v>1.398404239130044</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.001927974269718</v>
@@ -32044,7 +31996,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.398995518266059</v>
+        <v>1.401351059595837</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.974274594834451</v>
@@ -32133,7 +32085,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.399629637838076</v>
+        <v>1.401668512845371</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.104810154506963</v>
@@ -32222,7 +32174,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.449390221339133</v>
+        <v>1.444335666845648</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.127916864841881</v>
@@ -32311,7 +32263,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.411059386023653</v>
+        <v>1.402952197539249</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.097434962036639</v>
@@ -32400,7 +32352,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.402948291397017</v>
+        <v>1.398351353250256</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.147965013877609</v>
@@ -32489,7 +32441,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.40547743880335</v>
+        <v>1.399559072653948</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.037435341232523</v>
@@ -32578,7 +32530,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.402951967976932</v>
+        <v>1.385953463159058</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.106321429746319</v>
